--- a/similarities/split_global/harmonic_similarity_timestamps_378.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_378.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:45.420000')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:23.575000', '0:00:34.995000')]</t>
+          <t>('0:00:09.260000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:dim7', 'Bb:min7', 'Eb:7'], ['F:min7', 'Bb:7', 'Eb:7'], ['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:dim7', 'Bb:min7', 'Eb:7'], ['F:min7', 'Bb:7', 'Eb:7'], ['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.670000', '0:00:15.380000'), ('0:00:30.580000', '0:00:34.890000'), ('0:00:13.210000', '0:00:15.930000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:44.820000', '0:01:50.480000'), ('0:01:39.160000', '0:01:44.820000'), ('0:00:24.460000', '0:00:30.010000')]</t>
+          <t>('0:01:07.760000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=12.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=30.58', 'https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=104.82', 'https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=99.16', 'https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D:7', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:33.140000', '0:00:37.240000')]</t>
+          <t>('0:00:15', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
+          <t>('0:00:07.102281', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=15.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:21.213174', '0:00:28.074671')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'F']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:40.030000', '0:00:43.842000')]</t>
+          <t>('0:00:10.460000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:39.341337', '0:01:47.027142')]</t>
+          <t>('0:00:12.094553', '0:00:24.840113')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=40.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=99.341337']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:00:03.660000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000')]</t>
+          <t>('0:00:06.800000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>jaah_46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>['F:7', 'Eb:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['F:7', 'Eb:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:03.294000', '0:00:07.605000')]</t>
+          <t>('0:00:20.120000', '0:00:27.320000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+          <t>('0:00:15.470000', '0:00:24.580000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=3.294']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=20.12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-46#t=15.47</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:07.205000', '0:00:18.764000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:56.454081', '0:01:01.864331')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=7.205</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=56.454081</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:08.120000')]</t>
+          <t>('0:00:26.660000', '0:00:30.531000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+          <t>('0:00:36.140000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=26.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=62.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=36.14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:36.140000', '0:00:42.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:38.060000', '0:00:41.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=36.14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=38.06</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.820000', '0:00:46.240000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.740000', '0:00:19.740000')]</t>
+          <t>('0:01:28.583470', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=18.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=11.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:15.865600')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
